--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H2">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I2">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J2">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.93098125884061</v>
+        <v>3.749486333333333</v>
       </c>
       <c r="N2">
-        <v>2.93098125884061</v>
+        <v>11.248459</v>
       </c>
       <c r="O2">
-        <v>0.06753895530706304</v>
+        <v>0.07824568942484071</v>
       </c>
       <c r="P2">
-        <v>0.06753895530706304</v>
+        <v>0.07824568942484071</v>
       </c>
       <c r="Q2">
-        <v>52.76071679331692</v>
+        <v>82.40436713655278</v>
       </c>
       <c r="R2">
-        <v>52.76071679331692</v>
+        <v>741.639304228975</v>
       </c>
       <c r="S2">
-        <v>0.03394210230595138</v>
+        <v>0.04246846020427415</v>
       </c>
       <c r="T2">
-        <v>0.03394210230595138</v>
+        <v>0.04246846020427415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H3">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I3">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J3">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.85973558147534</v>
+        <v>2.933221666666667</v>
       </c>
       <c r="N3">
-        <v>2.85973558147534</v>
+        <v>8.799665000000001</v>
       </c>
       <c r="O3">
-        <v>0.06589723255469791</v>
+        <v>0.06121157170352321</v>
       </c>
       <c r="P3">
-        <v>0.06589723255469791</v>
+        <v>0.06121157170352321</v>
       </c>
       <c r="Q3">
-        <v>51.47822036148919</v>
+        <v>64.46490362268055</v>
       </c>
       <c r="R3">
-        <v>51.47822036148919</v>
+        <v>580.184132604125</v>
       </c>
       <c r="S3">
-        <v>0.03311704480594357</v>
+        <v>0.03322305951983682</v>
       </c>
       <c r="T3">
-        <v>0.03311704480594357</v>
+        <v>0.03322305951983682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H4">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I4">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J4">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.5324211540519</v>
+        <v>12.50096466666667</v>
       </c>
       <c r="N4">
-        <v>11.5324211540519</v>
+        <v>37.502894</v>
       </c>
       <c r="O4">
-        <v>0.2657429741512026</v>
+        <v>0.2608748270724658</v>
       </c>
       <c r="P4">
-        <v>0.2657429741512026</v>
+        <v>0.2608748270724658</v>
       </c>
       <c r="Q4">
-        <v>207.5955977592548</v>
+        <v>274.7400551363722</v>
       </c>
       <c r="R4">
-        <v>207.5955977592548</v>
+        <v>2472.66049622735</v>
       </c>
       <c r="S4">
-        <v>0.1335507067694404</v>
+        <v>0.1415918537271738</v>
       </c>
       <c r="T4">
-        <v>0.1335507067694404</v>
+        <v>0.1415918537271738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H5">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I5">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J5">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0737615507173</v>
+        <v>28.73572533333333</v>
       </c>
       <c r="N5">
-        <v>26.0737615507173</v>
+        <v>86.207176</v>
       </c>
       <c r="O5">
-        <v>0.6008208379870364</v>
+        <v>0.5996679117991702</v>
       </c>
       <c r="P5">
-        <v>0.6008208379870364</v>
+        <v>0.5996679117991702</v>
       </c>
       <c r="Q5">
-        <v>469.3548772324927</v>
+        <v>631.5396429777111</v>
       </c>
       <c r="R5">
-        <v>469.3548772324927</v>
+        <v>5683.8567867994</v>
       </c>
       <c r="S5">
-        <v>0.3019460733111277</v>
+        <v>0.3254744515029888</v>
       </c>
       <c r="T5">
-        <v>0.3019460733111277</v>
+        <v>0.3254744515029888</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H6">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I6">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J6">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.93098125884061</v>
+        <v>3.749486333333333</v>
       </c>
       <c r="N6">
-        <v>2.93098125884061</v>
+        <v>11.248459</v>
       </c>
       <c r="O6">
-        <v>0.06753895530706304</v>
+        <v>0.07824568942484071</v>
       </c>
       <c r="P6">
-        <v>0.06753895530706304</v>
+        <v>0.07824568942484071</v>
       </c>
       <c r="Q6">
-        <v>36.52342501457422</v>
+        <v>47.57489240419467</v>
       </c>
       <c r="R6">
-        <v>36.52342501457422</v>
+        <v>428.174031637752</v>
       </c>
       <c r="S6">
-        <v>0.02349630376070724</v>
+        <v>0.02451851151823174</v>
       </c>
       <c r="T6">
-        <v>0.02349630376070724</v>
+        <v>0.02451851151823174</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H7">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I7">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J7">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.85973558147534</v>
+        <v>2.933221666666667</v>
       </c>
       <c r="N7">
-        <v>2.85973558147534</v>
+        <v>8.799665000000001</v>
       </c>
       <c r="O7">
-        <v>0.06589723255469791</v>
+        <v>0.06121157170352321</v>
       </c>
       <c r="P7">
-        <v>0.06589723255469791</v>
+        <v>0.06121157170352321</v>
       </c>
       <c r="Q7">
-        <v>35.635621263863</v>
+        <v>37.21781939801333</v>
       </c>
       <c r="R7">
-        <v>35.635621263863</v>
+        <v>334.96037458212</v>
       </c>
       <c r="S7">
-        <v>0.02292516053965713</v>
+        <v>0.01918082180493174</v>
       </c>
       <c r="T7">
-        <v>0.02292516053965713</v>
+        <v>0.01918082180493174</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H8">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I8">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J8">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.5324211540519</v>
+        <v>12.50096466666667</v>
       </c>
       <c r="N8">
-        <v>11.5324211540519</v>
+        <v>37.502894</v>
       </c>
       <c r="O8">
-        <v>0.2657429741512026</v>
+        <v>0.2608748270724658</v>
       </c>
       <c r="P8">
-        <v>0.2657429741512026</v>
+        <v>0.2608748270724658</v>
       </c>
       <c r="Q8">
-        <v>143.7073396447157</v>
+        <v>158.6169400533813</v>
       </c>
       <c r="R8">
-        <v>143.7073396447157</v>
+        <v>1427.552460480432</v>
       </c>
       <c r="S8">
-        <v>0.09245001813460758</v>
+        <v>0.08174587634679771</v>
       </c>
       <c r="T8">
-        <v>0.09245001813460758</v>
+        <v>0.08174587634679771</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H9">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I9">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J9">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.0737615507173</v>
+        <v>28.73572533333333</v>
       </c>
       <c r="N9">
-        <v>26.0737615507173</v>
+        <v>86.207176</v>
       </c>
       <c r="O9">
-        <v>0.6008208379870364</v>
+        <v>0.5996679117991702</v>
       </c>
       <c r="P9">
-        <v>0.6008208379870364</v>
+        <v>0.5996679117991702</v>
       </c>
       <c r="Q9">
-        <v>324.9093019524145</v>
+        <v>364.6096876620587</v>
       </c>
       <c r="R9">
-        <v>324.9093019524145</v>
+        <v>3281.487188958528</v>
       </c>
       <c r="S9">
-        <v>0.2090211323364926</v>
+        <v>0.1879076625260607</v>
       </c>
       <c r="T9">
-        <v>0.2090211323364926</v>
+        <v>0.1879076625260607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H10">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I10">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J10">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.93098125884061</v>
+        <v>3.749486333333333</v>
       </c>
       <c r="N10">
-        <v>2.93098125884061</v>
+        <v>11.248459</v>
       </c>
       <c r="O10">
-        <v>0.06753895530706304</v>
+        <v>0.07824568942484071</v>
       </c>
       <c r="P10">
-        <v>0.06753895530706304</v>
+        <v>0.07824568942484071</v>
       </c>
       <c r="Q10">
-        <v>5.577804950654906</v>
+        <v>7.529679709907889</v>
       </c>
       <c r="R10">
-        <v>5.577804950654906</v>
+        <v>67.76711738917099</v>
       </c>
       <c r="S10">
-        <v>0.003588321724653899</v>
+        <v>0.003880545585420909</v>
       </c>
       <c r="T10">
-        <v>0.003588321724653899</v>
+        <v>0.003880545585420909</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H11">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I11">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J11">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.85973558147534</v>
+        <v>2.933221666666667</v>
       </c>
       <c r="N11">
-        <v>2.85973558147534</v>
+        <v>8.799665000000001</v>
       </c>
       <c r="O11">
-        <v>0.06589723255469791</v>
+        <v>0.06121157170352321</v>
       </c>
       <c r="P11">
-        <v>0.06589723255469791</v>
+        <v>0.06121157170352321</v>
       </c>
       <c r="Q11">
-        <v>5.44222083843238</v>
+        <v>5.890465441042778</v>
       </c>
       <c r="R11">
-        <v>5.44222083843238</v>
+        <v>53.014188969385</v>
       </c>
       <c r="S11">
-        <v>0.003501097553190378</v>
+        <v>0.003035749267427021</v>
       </c>
       <c r="T11">
-        <v>0.003501097553190378</v>
+        <v>0.003035749267427021</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H12">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I12">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J12">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.5324211540519</v>
+        <v>12.50096466666667</v>
       </c>
       <c r="N12">
-        <v>11.5324211540519</v>
+        <v>37.502894</v>
       </c>
       <c r="O12">
-        <v>0.2657429741512026</v>
+        <v>0.2608748270724658</v>
       </c>
       <c r="P12">
-        <v>0.2657429741512026</v>
+        <v>0.2608748270724658</v>
       </c>
       <c r="Q12">
-        <v>21.94677827164031</v>
+        <v>25.10430806696511</v>
       </c>
       <c r="R12">
-        <v>21.94677827164031</v>
+        <v>225.938772602686</v>
       </c>
       <c r="S12">
-        <v>0.01411883383427428</v>
+        <v>0.01293792240805681</v>
       </c>
       <c r="T12">
-        <v>0.01411883383427428</v>
+        <v>0.01293792240805681</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H13">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I13">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J13">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.0737615507173</v>
+        <v>28.73572533333333</v>
       </c>
       <c r="N13">
-        <v>26.0737615507173</v>
+        <v>86.207176</v>
       </c>
       <c r="O13">
-        <v>0.6008208379870364</v>
+        <v>0.5996679117991702</v>
       </c>
       <c r="P13">
-        <v>0.6008208379870364</v>
+        <v>0.5996679117991702</v>
       </c>
       <c r="Q13">
-        <v>49.61968140230111</v>
+        <v>57.70678667857155</v>
       </c>
       <c r="R13">
-        <v>49.61968140230111</v>
+        <v>519.3610801071439</v>
       </c>
       <c r="S13">
-        <v>0.03192140677586379</v>
+        <v>0.02974015162951684</v>
       </c>
       <c r="T13">
-        <v>0.03192140677586379</v>
+        <v>0.02974015162951684</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H14">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I14">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J14">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.93098125884061</v>
+        <v>3.749486333333333</v>
       </c>
       <c r="N14">
-        <v>2.93098125884061</v>
+        <v>11.248459</v>
       </c>
       <c r="O14">
-        <v>0.06753895530706304</v>
+        <v>0.07824568942484071</v>
       </c>
       <c r="P14">
-        <v>0.06753895530706304</v>
+        <v>0.07824568942484071</v>
       </c>
       <c r="Q14">
-        <v>10.12281998784484</v>
+        <v>14.31635620868733</v>
       </c>
       <c r="R14">
-        <v>10.12281998784484</v>
+        <v>128.847205878186</v>
       </c>
       <c r="S14">
-        <v>0.00651222751575052</v>
+        <v>0.007378172116913917</v>
       </c>
       <c r="T14">
-        <v>0.00651222751575052</v>
+        <v>0.007378172116913917</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H15">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I15">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J15">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.85973558147534</v>
+        <v>2.933221666666667</v>
       </c>
       <c r="N15">
-        <v>2.85973558147534</v>
+        <v>8.799665000000001</v>
       </c>
       <c r="O15">
-        <v>0.06589723255469791</v>
+        <v>0.06121157170352321</v>
       </c>
       <c r="P15">
-        <v>0.06589723255469791</v>
+        <v>0.06121157170352321</v>
       </c>
       <c r="Q15">
-        <v>9.876756603882438</v>
+        <v>11.19967976565667</v>
       </c>
       <c r="R15">
-        <v>9.876756603882438</v>
+        <v>100.79711789091</v>
       </c>
       <c r="S15">
-        <v>0.006353929655906843</v>
+        <v>0.005771941111327632</v>
       </c>
       <c r="T15">
-        <v>0.006353929655906843</v>
+        <v>0.005771941111327632</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H16">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I16">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J16">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.5324211540519</v>
+        <v>12.50096466666667</v>
       </c>
       <c r="N16">
-        <v>11.5324211540519</v>
+        <v>37.502894</v>
       </c>
       <c r="O16">
-        <v>0.2657429741512026</v>
+        <v>0.2608748270724658</v>
       </c>
       <c r="P16">
-        <v>0.2657429741512026</v>
+        <v>0.2608748270724658</v>
       </c>
       <c r="Q16">
-        <v>39.82987711516776</v>
+        <v>47.73140830763067</v>
       </c>
       <c r="R16">
-        <v>39.82987711516776</v>
+        <v>429.582674768676</v>
       </c>
       <c r="S16">
-        <v>0.02562341541288042</v>
+        <v>0.02459917459043752</v>
       </c>
       <c r="T16">
-        <v>0.02562341541288042</v>
+        <v>0.02459917459043752</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H17">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I17">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J17">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.0737615507173</v>
+        <v>28.73572533333333</v>
       </c>
       <c r="N17">
-        <v>26.0737615507173</v>
+        <v>86.207176</v>
       </c>
       <c r="O17">
-        <v>0.6008208379870364</v>
+        <v>0.5996679117991702</v>
       </c>
       <c r="P17">
-        <v>0.6008208379870364</v>
+        <v>0.5996679117991702</v>
       </c>
       <c r="Q17">
-        <v>90.05175102631206</v>
+        <v>109.7192637107893</v>
       </c>
       <c r="R17">
-        <v>90.05175102631206</v>
+        <v>987.4733733971041</v>
       </c>
       <c r="S17">
-        <v>0.05793222556355246</v>
+        <v>0.05654564614060385</v>
       </c>
       <c r="T17">
-        <v>0.05793222556355246</v>
+        <v>0.05654564614060385</v>
       </c>
     </row>
   </sheetData>
